--- a/Industry/201612-201908/HKD/MILLION/Analysis_121_29.2 - Parts & Components_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_121_29.2 - Parts & Components_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -18160,6 +18161,433 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16809.767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15318.921</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-8.869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10465.454</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15741.653</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9931.566000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.101</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6879.66</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6535.577</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5.001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4745.127</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7117.177</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.898999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4473.084</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.733</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.927</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42.663</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45.341</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.212</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45.039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5567.686</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5017.533</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-9.881</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3410.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5200.057</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.638</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3262.575</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-4.328</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.122</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.754</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32.585</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33.034</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32.851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2934.563</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2221.969</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-24.283</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1454.036</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2108.091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-5.125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1566.492</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.734</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.457</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.505</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.894</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.392</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="n">
+        <v>509.686</v>
+      </c>
+      <c r="C6" t="n">
+        <v>706.778</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.669</v>
+      </c>
+      <c r="E6" t="n">
+        <v>459.827</v>
+      </c>
+      <c r="F6" t="n">
+        <v>751.254</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.293</v>
+      </c>
+      <c r="H6" t="n">
+        <v>383.469</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-16.606</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.614</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.772</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="n">
+        <v>850.359</v>
+      </c>
+      <c r="C7" t="n">
+        <v>780.211</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-8.249000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>361.749</v>
+      </c>
+      <c r="F7" t="n">
+        <v>513.978</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-34.123</v>
+      </c>
+      <c r="H7" t="n">
+        <v>214.565</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-40.687</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.059</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.093</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48.943</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.086</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-11.965</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.264</v>
+      </c>
+      <c r="F8" t="n">
+        <v>41.664</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3.301</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.837</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-26.276</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.768</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-27.038</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.273</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.430999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-31.497</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.545</v>
+      </c>
+      <c r="I9" t="n">
+        <v>68.104</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
